--- a/models/results/LSTM_iterations_model_results.xlsx
+++ b/models/results/LSTM_iterations_model_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,30 +514,165 @@
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;keras.src.optimizers.legacy.adam.Adam object at 0x0000029F7F1E3AF0&gt;</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>100</v>
       </c>
       <c r="I2" t="n">
+        <v>64</v>
+      </c>
+      <c r="J2" t="n">
+        <v>29.06751262703127</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1382.199652640461</v>
+      </c>
+      <c r="L2" t="n">
+        <v>37.17794578295661</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.184509935589258</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;keras.src.optimizers.legacy.adam.Adam object at 0x7f62c62e4940&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
         <v>32</v>
       </c>
-      <c r="J2" t="n">
-        <v>41.32571769644493</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3524.841524626313</v>
-      </c>
-      <c r="L2" t="n">
-        <v>59.3703758167852</v>
-      </c>
-      <c r="M2" t="n">
-        <v>25.29629399320494</v>
+      <c r="J3" t="n">
+        <v>20.46878326057768</v>
+      </c>
+      <c r="K3" t="n">
+        <v>816.5461207380611</v>
+      </c>
+      <c r="L3" t="n">
+        <v>28.57527114023699</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1288886322929146</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" t="n">
+        <v>31</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>64</v>
+      </c>
+      <c r="J4" t="n">
+        <v>34.00734830684019</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2007.035158362287</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44.79994596383223</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2136256006984066</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>31</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;keras.src.optimizers.legacy.adam.Adam object at 0x7f624bebb5b0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>48.06092926304213</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3699.469716546063</v>
+      </c>
+      <c r="L5" t="n">
+        <v>60.82326624365106</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2958491047321462</v>
       </c>
     </row>
   </sheetData>
